--- a/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
+++ b/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002095</t>
+          <t>002142</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合A</t>
+          <t>博时外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.71</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002096</t>
+          <t>002095</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合C</t>
+          <t>博时新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>63.71</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.95</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002142</t>
+          <t>004434</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时外延增长主题灵活配置混合</t>
+          <t>博时逆向投资混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>73.87</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004434</t>
+          <t>004677</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时逆向投资混合A</t>
+          <t>博时战略新兴产业混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.05</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004435</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时逆向投资混合C</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.05</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159804</t>
+          <t>002096</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
+          <t>博时新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>97.88</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004677</t>
+          <t>004435</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时战略新兴产业混合</t>
+          <t>博时逆向投资混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>67.94</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -744,15 +834,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>65.73</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.09</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -772,15 +872,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>65.73</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.09</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
+++ b/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
+++ b/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
@@ -922,12 +922,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
+++ b/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2623</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,423 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5993</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4564</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
+++ b/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5466</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1406,13 +1471,553 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4996</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0601</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1839</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1787</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6866</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6046</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
+++ b/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,319 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002142</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>73.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2885</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002095</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2636</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+      <c r="D3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004434</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时逆向投资混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1930</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004677</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时战略新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>67.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1341</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0747</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002096</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004435</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时逆向投资混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -776,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -827,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002095</t>
+          <t>001018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合A</t>
+          <t>易方达新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>72.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.73</t>
+          <t>83.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2194</t>
+          <t>3.2240</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -865,36 +643,492 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002096</t>
+          <t>501203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合C</t>
+          <t>易方达创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>67.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.73</t>
+          <t>81.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0407</t>
+          <t>2.5466</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4996</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0601</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1839</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1787</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6866</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6046</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,7 +1599,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1395,36 +1629,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001018</t>
+          <t>002095</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达新经济灵活配置混合</t>
+          <t>博时新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.45</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.83</t>
+          <t>65.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2240</t>
+          <t>0.2194</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1433,492 +1667,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501203</t>
+          <t>002096</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达创新未来18个月封闭运作混合A</t>
+          <t>博时新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67.37</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.92</t>
+          <t>65.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5466</t>
+          <t>0.0407</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>110013</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达科翔混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>53.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.4996</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009341</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达均衡成长股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>69.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.0601</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>530005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信优化配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>29.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1839</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000729</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信中小盘先锋股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>29.32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.1787</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>110001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达平稳增长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>35.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>62.17</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.0166</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000756</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>建信潜力新蓝筹股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>16.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8034</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014967</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信潜力新蓝筹股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6866</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001076</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达改革红利混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12.39</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6046</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>013919</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>建信中小盘先锋股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4844</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002446</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.39</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>74.14</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3779</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>74.14</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>015436</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信优化配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1932,96 +1710,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.7</v>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.02</v>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
+++ b/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>16.7</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.02</v>
       </c>
     </row>
@@ -549,6 +566,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2167</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9257</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7351</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5773</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0612</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9904</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8372</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8031</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7055</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1136,7 +2197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1572,7 +2633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1704,7 +2765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
+++ b/数据整理/stocks/A股/创业板/300068-南都电源.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>17.06</v>
+        <v>26.91</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>16.7</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.02</v>
       </c>
     </row>
@@ -566,6 +583,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科翔混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2801</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>52.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3094</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6891</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016067</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6831</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达平稳增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3350</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2758</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2169</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7681</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5364</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5361</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4449</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016068</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1609,7 +2746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2197,7 +3334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2633,7 +3770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2765,7 +3902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
